--- a/comparador/Template_Comparacao.xlsx
+++ b/comparador/Template_Comparacao.xlsx
@@ -477,8 +477,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3278,8 +3278,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3373,12 +3373,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:L3"/>
+  <dimension ref="A3:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3441,6 +3441,21 @@
         </is>
       </c>
       <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="inlineStr">
+        <is>
+          <t>Absorptivity (PREV)</t>
+        </is>
+      </c>
+      <c r="N3" s="7" t="inlineStr">
+        <is>
+          <t>Absorptivity (REF)</t>
+        </is>
+      </c>
+      <c r="O3" s="8" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -3457,12 +3472,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:L3"/>
+  <dimension ref="A3:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3529,6 +3544,21 @@
           <t>?</t>
         </is>
       </c>
+      <c r="M3" s="6" t="inlineStr">
+        <is>
+          <t>Absorptivity (PREV)</t>
+        </is>
+      </c>
+      <c r="N3" s="7" t="inlineStr">
+        <is>
+          <t>Absorptivity (REF)</t>
+        </is>
+      </c>
+      <c r="O3" s="8" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
